--- a/data/2_teaching/teaching.xlsx
+++ b/data/2_teaching/teaching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\biobib\data\2_teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8193856C-6E1E-40F6-B70E-CA6635226CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11303D60-EE98-480D-A5B8-72B87C9225A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teaching" sheetId="1" r:id="rId1"/>
@@ -1069,10 +1069,13 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="53.1015625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
